--- a/data/变量说明.xlsx
+++ b/data/变量说明.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A5AA5A-C8D6-4CB0-B27D-894F21502652}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="变量说明" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -275,7 +276,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,9 +336,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -346,6 +344,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -630,14 +631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
@@ -645,339 +646,339 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>186</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>1081045</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>1081532</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>0</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>186</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>11</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>1081045</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>0</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>3</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>152</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>683</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>2539</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>1</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:3" ht="27.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>1</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>34</v>
       </c>
     </row>
